--- a/biology/Microbiologie/Halteriidae/Halteriidae.xlsx
+++ b/biology/Microbiologie/Halteriidae/Halteriidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Halteriidae sont une famille de Ciliés de la classe des Oligotrichea et de l’ordre des Halteriida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Halteria, dérivé du grec halter, saut, en référence au mode de déplacement par sauts de cet organisme.
 </t>
@@ -542,21 +556,23 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (24 octobre 2022)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (24 octobre 2022) :
 Cephalotrichium Meunier, 1910
 Halteria Dujardin, 1841  genre type
 Halterioforma Horváth, 1956
 Meseres Schewiakoff, 1892
 Pelagohalteria Foissner, Skogstad &amp; Pratt, 1988
-Selon The Taxonomicon  (24 octobre 2022)[2]
+Selon The Taxonomicon  (24 octobre 2022)
 ? Octocirrus Rao, 1928, nom. dub.
 ? Spelaeonecta Jankowski, 1975
 Cephalotrichium Meunier, 1910
 Halteria Dujardin, 1841   genre type
 Halterioforma Horváth, 1956
-Meseres Schewiakoff, 1893[1892]
+Meseres Schewiakoff, 1893
 Metastrombidium Fauré-Fremiet, 1923
 Parastrombidium Fauré-Fremiet, 1923
 Pelagohalteria Foissner et al., 1988</t>
@@ -587,9 +603,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Halteriidae Claparède &amp; Lachmann, 1858[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Halteriidae Claparède &amp; Lachmann, 1858.
 </t>
         </is>
       </c>
